--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2248296.765286445</v>
+        <v>-2249110.212498332</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954291</v>
+        <v>2927877.345954288</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.105971784287</v>
+        <v>161.6347995171728</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864967</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443795</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922377</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577617</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.32070768241307</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545154</v>
+        <v>84.08218037545164</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842794</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>163.2962484526288</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244662</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>71.83466735076269</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>13.28016611348124</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D13" t="n">
-        <v>62.544041901963</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774245</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033065</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366579</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227645</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271687</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706115</v>
+        <v>51.59162115979839</v>
       </c>
       <c r="U13" t="n">
         <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810938</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>77.72525476823043</v>
       </c>
       <c r="C14" t="n">
         <v>289.1172887419689</v>
@@ -1613,19 +1613,19 @@
         <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>108.0284974347252</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241306</v>
+        <v>61.32070768241307</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.0821803754516</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898418</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438467</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592881</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H16" t="n">
-        <v>41.42047978263962</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>59.40363955371079</v>
       </c>
       <c r="V16" t="n">
         <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011058</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283889</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118835</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130257</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909812</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X17" t="n">
         <v>212.2829152237292</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754363</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C19" t="n">
-        <v>1.99288599294411</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890148</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794438</v>
+        <v>197.3959288546019</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917106</v>
+        <v>63.88762135917109</v>
       </c>
       <c r="U19" t="n">
-        <v>123.3843352248698</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716922</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358559</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965328</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011044</v>
+        <v>7.152388864011058</v>
       </c>
       <c r="T20" t="n">
         <v>53.82993817283889</v>
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696254</v>
       </c>
       <c r="G21" t="n">
         <v>127.1529440554385</v>
@@ -2242,13 +2242,13 @@
         <v>1.99288599294411</v>
       </c>
       <c r="D22" t="n">
-        <v>5.006104322177158</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1.061950638890148</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794438</v>
+        <v>197.3959288546022</v>
       </c>
       <c r="T22" t="n">
         <v>63.88762135917106</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011087</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T23" t="n">
         <v>53.82993817283892</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>157.0239033855476</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.80205049538872</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S25" t="n">
         <v>41.43397610794441</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668826</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245643</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690923</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389979</v>
+        <v>288.3387114389978</v>
       </c>
       <c r="F26" t="n">
-        <v>307.5105275269751</v>
+        <v>307.510527526975</v>
       </c>
       <c r="G26" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403572</v>
       </c>
       <c r="I26" t="n">
-        <v>47.8186887650086</v>
+        <v>47.81868876500856</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804714</v>
+        <v>70.5801614580471</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2612,16 +2612,16 @@
         <v>149.7942295352244</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070617</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850186</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177652</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.1072856139641</v>
+        <v>287.107285613964</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157968</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698017</v>
       </c>
       <c r="D28" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455856</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033801</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852431</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292621</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626135</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487201</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531243</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019804</v>
       </c>
       <c r="T28" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967286</v>
       </c>
       <c r="V28" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118185</v>
       </c>
       <c r="X28" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636893</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D29" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F29" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G29" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500855</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804709</v>
+        <v>70.58016145804713</v>
       </c>
       <c r="T29" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
         <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W29" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X29" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157967</v>
+        <v>79.22066374157971</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698015</v>
+        <v>65.4206585869802</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455854</v>
+        <v>49.04202298455859</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033799</v>
+        <v>47.98977284033803</v>
       </c>
       <c r="F31" t="n">
-        <v>48.4566971685243</v>
+        <v>48.45669716852434</v>
       </c>
       <c r="G31" t="n">
-        <v>64.4897232329262</v>
+        <v>64.48972323292624</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626134</v>
+        <v>53.13104232626138</v>
       </c>
       <c r="I31" t="n">
-        <v>32.993986504872</v>
+        <v>32.99398650487204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531241</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="32">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.51683636612715</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.5168363661271</v>
       </c>
       <c r="S37" t="n">
         <v>54.77414398506304</v>
@@ -3503,19 +3503,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
         <v>171.3885593234398</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112968</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995752</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830698</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901443</v>
@@ -3566,7 +3566,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970466</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006274</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600878</v>
+        <v>33.91895488213595</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343913</v>
+        <v>3.043437609343942</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.51683636612734</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506301</v>
+        <v>54.77414398506304</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628969</v>
+        <v>77.22778923628972</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W40" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070423</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677191</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112959</v>
+        <v>20.49255674112956</v>
       </c>
       <c r="T41" t="n">
         <v>67.17010604995741</v>
@@ -3837,7 +3837,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I42" t="n">
-        <v>57.77334520310322</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945687</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3901,7 +3901,7 @@
         <v>15.33305387006263</v>
       </c>
       <c r="D43" t="n">
-        <v>19.51683636612859</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>14.40211851600866</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343802</v>
+        <v>3.0434376093438</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.51683636612856</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506291</v>
+        <v>54.7741439850629</v>
       </c>
       <c r="T43" t="n">
         <v>77.22778923628958</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499651</v>
+        <v>237.516348149965</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D44" t="n">
         <v>216.5089691521748</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234397</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112964</v>
+        <v>20.49255674112955</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995747</v>
+        <v>67.17010604995738</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830692</v>
+        <v>99.70662481830684</v>
       </c>
       <c r="V44" t="n">
         <v>181.0227253901442</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681011</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970464</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I45" t="n">
-        <v>57.77334520310322</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945687</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.1330590246622</v>
+        <v>29.13305902466212</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006268</v>
+        <v>15.3330538700626</v>
       </c>
       <c r="D46" t="n">
-        <v>19.51683636612808</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600872</v>
+        <v>14.40211851600864</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343858</v>
+        <v>22.56027397547298</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506296</v>
+        <v>54.77414398506287</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628964</v>
+        <v>77.22778923628955</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798111</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.708081494901</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070417</v>
+        <v>76.35318349070408</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677186</v>
+        <v>67.22805124677177</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1525.717288363962</v>
+        <v>1282.767770511447</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.717288363962</v>
+        <v>1282.767770511447</v>
       </c>
       <c r="D11" t="n">
-        <v>1242.78941686245</v>
+        <v>999.8398990099355</v>
       </c>
       <c r="E11" t="n">
-        <v>937.8997902398211</v>
+        <v>999.8398990099355</v>
       </c>
       <c r="F11" t="n">
-        <v>613.6446928212559</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G11" t="n">
-        <v>287.9810183846521</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
-        <v>50.62931842731714</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731714</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002493</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.425004661992</v>
+        <v>2041.815054131358</v>
       </c>
       <c r="X11" t="n">
-        <v>1829.864734610716</v>
+        <v>1749.681006924116</v>
       </c>
       <c r="Y11" t="n">
-        <v>1829.864734610716</v>
+        <v>1446.035244771218</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779667</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189216</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G12" t="n">
         <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K12" t="n">
-        <v>410.0502178858009</v>
+        <v>306.5417023182949</v>
       </c>
       <c r="L12" t="n">
-        <v>837.8376045017457</v>
+        <v>734.3290889342396</v>
       </c>
       <c r="M12" t="n">
-        <v>1395.181822153484</v>
+        <v>1291.673306585978</v>
       </c>
       <c r="N12" t="n">
-        <v>1980.672185824252</v>
+        <v>1877.163670256746</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5151,13 +5151,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382.3836705378824</v>
+        <v>369.9097000738145</v>
       </c>
       <c r="C13" t="n">
-        <v>368.9693613323458</v>
+        <v>290.1898238067596</v>
       </c>
       <c r="D13" t="n">
-        <v>305.7935614313731</v>
+        <v>227.0140239057868</v>
       </c>
       <c r="E13" t="n">
-        <v>243.6806404639565</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639565</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383699</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002063</v>
+        <v>97.59498047002072</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413181</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405362</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424593</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.898235192891</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212475</v>
+        <v>1207.785486546629</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911287</v>
+        <v>1010.504655825282</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208158</v>
+        <v>839.6654446549692</v>
       </c>
       <c r="W13" t="n">
-        <v>749.5383823208158</v>
+        <v>643.4051364436327</v>
       </c>
       <c r="X13" t="n">
-        <v>608.1820114874561</v>
+        <v>502.0487656102729</v>
       </c>
       <c r="Y13" t="n">
-        <v>476.0429459509976</v>
+        <v>369.9097000738145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1034.006358430718</v>
+        <v>1337.45373595004</v>
       </c>
       <c r="C14" t="n">
-        <v>741.9686930347895</v>
+        <v>1045.416070554112</v>
       </c>
       <c r="D14" t="n">
-        <v>459.0408215332775</v>
+        <v>762.4881990526004</v>
       </c>
       <c r="E14" t="n">
-        <v>349.9211271547664</v>
+        <v>762.4881990526004</v>
       </c>
       <c r="F14" t="n">
-        <v>349.9211271547664</v>
+        <v>438.2331016340352</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547664</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974313</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
@@ -5279,19 +5279,19 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938953</v>
+        <v>287.2391769275717</v>
       </c>
       <c r="L14" t="n">
-        <v>907.9461548436961</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M14" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N14" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O14" t="n">
-        <v>2263.223623021737</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P14" t="n">
         <v>2379.433668932841</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002492</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="V14" t="n">
-        <v>1902.425004661992</v>
+        <v>2284.382740533063</v>
       </c>
       <c r="W14" t="n">
-        <v>1629.786167790857</v>
+        <v>2011.743903661929</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.652120583615</v>
+        <v>1719.609856454686</v>
       </c>
       <c r="Y14" t="n">
-        <v>1034.006358430718</v>
+        <v>1415.964094301788</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779676</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189225</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091347</v>
       </c>
       <c r="E15" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660058</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158802</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H15" t="n">
         <v>108.986232773886</v>
@@ -5367,40 +5367,40 @@
         <v>1398.552487108882</v>
       </c>
       <c r="N15" t="n">
-        <v>1980.672185824251</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P15" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.7726248646435</v>
+        <v>323.400516731012</v>
       </c>
       <c r="C16" t="n">
-        <v>155.0527485975883</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="D16" t="n">
-        <v>155.0527485975883</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0527485975883</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="F16" t="n">
-        <v>92.46818689462987</v>
+        <v>243.6806404639567</v>
       </c>
       <c r="G16" t="n">
-        <v>92.46818689462987</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H16" t="n">
-        <v>50.62931842731714</v>
+        <v>97.59498047002072</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413175</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405362</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1428.106858962691</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.547497730989</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T16" t="n">
-        <v>1166.307686750573</v>
+        <v>1117.658424212475</v>
       </c>
       <c r="U16" t="n">
-        <v>969.0268560292262</v>
+        <v>1057.654747895595</v>
       </c>
       <c r="V16" t="n">
-        <v>798.1876448589132</v>
+        <v>886.8155367252821</v>
       </c>
       <c r="W16" t="n">
-        <v>601.927336647577</v>
+        <v>690.5552285139456</v>
       </c>
       <c r="X16" t="n">
-        <v>460.5709658142172</v>
+        <v>549.1988576805858</v>
       </c>
       <c r="Y16" t="n">
-        <v>328.4319002777588</v>
+        <v>417.0597921441274</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121867</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021242</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961252</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G17" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720861</v>
       </c>
       <c r="H17" t="n">
         <v>50.62931842731714</v>
@@ -5522,10 +5522,10 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M17" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N17" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O17" t="n">
         <v>2074.574784355414</v>
@@ -5552,13 +5552,13 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.32046835369</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259014</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218683</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5604,16 +5604,16 @@
         <v>1398.552487108882</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R18" t="n">
         <v>2489.760525245193</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.1956669690494</v>
+        <v>53.71501199482655</v>
       </c>
       <c r="C19" t="n">
-        <v>204.1826508145604</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="D19" t="n">
-        <v>204.1826508145604</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="E19" t="n">
-        <v>204.1826508145604</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033749</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731714</v>
@@ -5698,25 +5698,25 @@
         <v>782.931691199069</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799333</v>
+        <v>583.5418640732084</v>
       </c>
       <c r="T19" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053589</v>
       </c>
       <c r="U19" t="n">
-        <v>551.9155975708011</v>
+        <v>399.4349425965785</v>
       </c>
       <c r="V19" t="n">
-        <v>458.7832465130545</v>
+        <v>306.3025915388317</v>
       </c>
       <c r="W19" t="n">
-        <v>340.2297984142842</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X19" t="n">
-        <v>276.5802876934907</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.1480822695985</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>704.7792099021231</v>
       </c>
       <c r="F20" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961242</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
@@ -5756,19 +5756,19 @@
         <v>475.8880155938953</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773725</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710448</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355414</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779676</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189225</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091347</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660058</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158802</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
         <v>108.986232773886</v>
@@ -5829,25 +5829,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411996</v>
+        <v>144.1503362656408</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571443</v>
+        <v>571.9377228815855</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.552487108882</v>
+        <v>1129.281940533324</v>
       </c>
       <c r="N21" t="n">
-        <v>1877.163670256746</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O21" t="n">
-        <v>2337.264736621381</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.2523380015515</v>
+        <v>53.71501199482649</v>
       </c>
       <c r="C22" t="n">
-        <v>209.2393218470625</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="D22" t="n">
-        <v>204.1826508145604</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="E22" t="n">
-        <v>204.1826508145604</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="F22" t="n">
         <v>51.70199584033749</v>
@@ -5935,25 +5935,25 @@
         <v>782.931691199069</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799333</v>
+        <v>583.5418640732081</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053586</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033033</v>
+        <v>399.4349425965782</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455566</v>
+        <v>306.3025915388315</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467864</v>
+        <v>187.7491434400613</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259929</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.2047533021007</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121855</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G23" t="n">
         <v>210.2741582720861</v>
@@ -5987,25 +5987,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>131.2819911811621</v>
       </c>
       <c r="K23" t="n">
-        <v>287.2391769275717</v>
+        <v>439.2714293605875</v>
       </c>
       <c r="L23" t="n">
-        <v>719.2973161773725</v>
+        <v>871.3295686103884</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144587</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710448</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355414</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6014,10 +6014,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
@@ -6026,10 +6026,10 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E24" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G24" t="n">
         <v>206.1118778881637</v>
@@ -6078,34 +6078,34 @@
         <v>1398.552487108882</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P24" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015513</v>
+        <v>72.70698219218889</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470622</v>
+        <v>70.69396603769987</v>
       </c>
       <c r="D25" t="n">
-        <v>209.2393218470622</v>
+        <v>70.69396603769987</v>
       </c>
       <c r="E25" t="n">
-        <v>209.2393218470622</v>
+        <v>70.69396603769987</v>
       </c>
       <c r="F25" t="n">
-        <v>209.2393218470622</v>
+        <v>70.69396603769987</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731714</v>
+        <v>69.62128862467948</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731714</v>
+        <v>69.62128862467948</v>
       </c>
       <c r="I25" t="n">
         <v>50.62931842731714</v>
@@ -6169,28 +6169,28 @@
         <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>644.3863353897066</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799331</v>
+        <v>602.5338342705708</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120836</v>
+        <v>538.0008834027212</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033032</v>
+        <v>418.4269127939408</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455564</v>
+        <v>325.2945617361941</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467862</v>
+        <v>206.7411136374238</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259927</v>
+        <v>143.0916029166303</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021004</v>
+        <v>88.65939749273804</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550345</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L26" t="n">
         <v>1231.659656648232</v>
@@ -6236,22 +6236,22 @@
         <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630805</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
         <v>3306.281825613528</v>
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,7 +6300,7 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
@@ -6309,16 +6309,16 @@
         <v>432.7119054155454</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314901</v>
+        <v>753.620111508585</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683228</v>
+        <v>1310.964329160323</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1896.454692831091</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.963208398597</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="P27" t="n">
         <v>2356.555759195727</v>
@@ -6367,40 +6367,40 @@
         <v>319.4771309743117</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F28" t="n">
-        <v>222.056454197683</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189696</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974932</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567079</v>
+        <v>129.4480754567074</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266703</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995725</v>
       </c>
       <c r="M28" t="n">
-        <v>786.949472832042</v>
+        <v>786.9494728320414</v>
       </c>
       <c r="N28" t="n">
         <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021225</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688839</v>
       </c>
       <c r="Q28" t="n">
         <v>1554.333871362879</v>
@@ -6409,7 +6409,7 @@
         <v>1519.323011771654</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T28" t="n">
         <v>1284.800645453283</v>
@@ -6418,16 +6418,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553705</v>
+        <v>943.9574094553701</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909073</v>
+        <v>761.3355041909069</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967896</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550346</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L29" t="n">
         <v>1231.659656648232</v>
@@ -6473,40 +6473,40 @@
         <v>1820.031403358843</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630803</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019165</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339989</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701279</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166773</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,22 +6537,22 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>153.7667501277914</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>429.3412404601463</v>
+        <v>432.7119054155454</v>
       </c>
       <c r="L30" t="n">
-        <v>857.128627076091</v>
+        <v>860.4992920314901</v>
       </c>
       <c r="M30" t="n">
-        <v>1414.472844727829</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.963208398597</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O30" t="n">
         <v>1999.963208398597</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485928</v>
+        <v>435.096001248593</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284108</v>
+        <v>369.014527928411</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743112</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537678</v>
+        <v>271.002612953768</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976826</v>
+        <v>222.0564541976828</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
         <v>529.9767315995732</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320419</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6640,13 +6640,13 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
         <v>1284.800645453283</v>
@@ -6661,10 +6661,10 @@
         <v>761.3355041909068</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044202</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148348</v>
+        <v>515.1168737148352</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027181</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472543</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967872</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250952</v>
+        <v>653.9606153250973</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353646</v>
+        <v>341.9353438353667</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
         <v>288.6637597322124</v>
@@ -6704,46 +6704,46 @@
         <v>698.1273576550345</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O32" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P32" t="n">
-        <v>3297.692648377287</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701279</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613526</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052693</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166772</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982145</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776118</v>
+        <v>2094.026307776121</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6774,13 +6774,13 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155453</v>
+        <v>432.7119054155454</v>
       </c>
       <c r="L33" t="n">
         <v>860.4992920314901</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485932</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
         <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743115</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
         <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567086</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266714</v>
+        <v>292.3240720266716</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995737</v>
+        <v>529.9767315995739</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320426</v>
+        <v>786.9494728320428</v>
       </c>
       <c r="N34" t="n">
         <v>1043.45926282238</v>
@@ -6892,16 +6892,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553703</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909072</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044206</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148354</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189933</v>
@@ -6935,16 +6935,16 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137832</v>
       </c>
       <c r="K35" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430088</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
@@ -7020,16 +7020,16 @@
         <v>417.2708591405124</v>
       </c>
       <c r="L36" t="n">
-        <v>738.1790652335511</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>1295.523282885289</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N36" t="n">
-        <v>1881.013646556057</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>2341.114712920693</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P36" t="n">
         <v>2341.114712920693</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201073</v>
+        <v>87.58900179270616</v>
       </c>
       <c r="C37" t="n">
-        <v>91.8150447180237</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="D37" t="n">
-        <v>91.8150447180237</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="E37" t="n">
-        <v>91.8150447180237</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="F37" t="n">
-        <v>91.8150447180237</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="G37" t="n">
-        <v>77.26745025740874</v>
+        <v>57.55347413000759</v>
       </c>
       <c r="H37" t="n">
-        <v>74.19327085403103</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I37" t="n">
-        <v>74.19327085403103</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J37" t="n">
         <v>54.47929472662987</v>
@@ -7117,28 +7117,28 @@
         <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983816</v>
+        <v>767.0676913709805</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316512</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T37" t="n">
-        <v>653.446381416207</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598321</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544908</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W37" t="n">
-        <v>281.761860508126</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397378</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.730310268251</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018754</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442183</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906249</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
@@ -7175,13 +7175,13 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430092</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
@@ -7205,7 +7205,7 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
@@ -7214,10 +7214,10 @@
         <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.402463408195</v>
+        <v>938.9307320881599</v>
       </c>
       <c r="N39" t="n">
         <v>1524.421095758928</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3029779201074</v>
+        <v>107.3029779201073</v>
       </c>
       <c r="C40" t="n">
-        <v>91.81504471802384</v>
+        <v>91.8150447180237</v>
       </c>
       <c r="D40" t="n">
-        <v>91.81504471802384</v>
+        <v>91.8150447180237</v>
       </c>
       <c r="E40" t="n">
-        <v>91.81504471802384</v>
+        <v>91.8150447180237</v>
       </c>
       <c r="F40" t="n">
-        <v>91.81504471802384</v>
+        <v>91.8150447180237</v>
       </c>
       <c r="G40" t="n">
-        <v>77.26745025740891</v>
+        <v>57.55347413000759</v>
       </c>
       <c r="H40" t="n">
-        <v>74.19327085403123</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I40" t="n">
-        <v>74.19327085403123</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J40" t="n">
         <v>54.47929472662987</v>
@@ -7372,10 +7372,10 @@
         <v>281.761860508126</v>
       </c>
       <c r="X40" t="n">
-        <v>204.6374327397379</v>
+        <v>204.6374327397378</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.7303102682511</v>
+        <v>136.730310268251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018758</v>
+        <v>989.7116209018767</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442198</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906254</v>
+        <v>489.0307829906264</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189932</v>
@@ -7415,16 +7415,16 @@
         <v>479.7379918932079</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430086</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O41" t="n">
-        <v>2267.073599321049</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P41" t="n">
         <v>2571.932483898477</v>
@@ -7436,25 +7436,25 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887514</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081351</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>54.47929472662986</v>
       </c>
       <c r="J42" t="n">
-        <v>138.3257038527581</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K42" t="n">
-        <v>413.9001941851129</v>
+        <v>148.0003125649523</v>
       </c>
       <c r="L42" t="n">
-        <v>841.6875808010576</v>
+        <v>575.787699180897</v>
       </c>
       <c r="M42" t="n">
-        <v>1399.031798452796</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N42" t="n">
-        <v>1984.522162123564</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123564</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201083</v>
+        <v>87.58900179270572</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802486</v>
+        <v>72.10106859062225</v>
       </c>
       <c r="D43" t="n">
         <v>72.10106859062225</v>
@@ -7576,43 +7576,43 @@
         <v>252.0596313827015</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187141</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741638</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983815</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983815</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983815</v>
+        <v>767.067691370979</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316512</v>
+        <v>711.7402732042488</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162073</v>
+        <v>633.7324052888047</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598324</v>
+        <v>500.6835176324298</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544912</v>
+        <v>394.0762495270886</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081266</v>
+        <v>262.047884380724</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397386</v>
+        <v>184.923456612336</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682519</v>
+        <v>117.0163341408493</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018752</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F44" t="n">
         <v>489.0307829906251</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189931</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137825</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932079</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430087</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110223</v>
@@ -7661,37 +7661,37 @@
         <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.073599321049</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P44" t="n">
-        <v>2571.932483898477</v>
+        <v>2571.932483898475</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331491</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331491</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067724</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.41659209807</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655336</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887514</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>209.9618541874764</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8362090731988</v>
+        <v>112.8362090731987</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="J45" t="n">
         <v>141.6963688081574</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405123</v>
+        <v>417.2708591405122</v>
       </c>
       <c r="L45" t="n">
         <v>845.0582457564569</v>
@@ -7740,7 +7740,7 @@
         <v>1524.421095758928</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P45" t="n">
         <v>2341.114712920693</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.302977920108</v>
+        <v>107.3029779201088</v>
       </c>
       <c r="C46" t="n">
-        <v>91.81504471802447</v>
+        <v>91.8150447180254</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062236</v>
+        <v>91.8150447180254</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062236</v>
+        <v>91.8150447180254</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062236</v>
+        <v>91.8150447180254</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000749</v>
+        <v>77.26745025741062</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662982</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7813,43 +7813,43 @@
         <v>252.0596313827015</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187141</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741638</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983815</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983815</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983815</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316512</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162071</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598323</v>
+        <v>520.3974937598327</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544911</v>
+        <v>413.7902256544916</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081264</v>
+        <v>281.761860508127</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397384</v>
+        <v>204.637432739739</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682516</v>
+        <v>136.7303102682524</v>
       </c>
     </row>
   </sheetData>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K12" t="n">
-        <v>340.4000960401919</v>
+        <v>323.9440945392035</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,10 +8781,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>47.27246317627822</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724203</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512782</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8942,7 +8942,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>227.7839381316913</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>619.7403745704585</v>
+        <v>154.9918226869893</v>
       </c>
       <c r="O15" t="n">
-        <v>47.27246317627822</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9170,13 +9170,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494463</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>304.485853150333</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869893</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9404,13 +9404,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>352.4051964243496</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>531.5645509948645</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577348</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>515.1863184416654</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>53.80710347724203</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>182.839148982981</v>
       </c>
       <c r="K23" t="n">
-        <v>230.8346538512782</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869883</v>
+        <v>154.9918226869893</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9957,19 +9957,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>374.1336806895422</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869888</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724203</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>160.5136338663708</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,10 +10200,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869888</v>
       </c>
       <c r="O30" t="n">
-        <v>47.27246317627822</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406825</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10668,19 +10668,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>374.1336806895414</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>53.80710347724203</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>137.263318915368</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869879</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>160.5136338663705</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577335</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>47.27246317627828</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>418.338320622925</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869884</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>139.4711722671144</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.320707682413</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024231</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>217.378039384407</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C13" t="n">
-        <v>65.64251139090337</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592876</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>89.22579171081324</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.297705129223</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>223.3807170160567</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.8122329216772</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545164</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196306</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4917917577425</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033071</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25.21258146102623</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227651</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.9043828604223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1188656.406936102</v>
+        <v>1188656.406936103</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>153175.3263014609</v>
       </c>
       <c r="C2" t="n">
-        <v>153175.3263014608</v>
+        <v>153175.3263014609</v>
       </c>
       <c r="D2" t="n">
         <v>153175.3263014608</v>
@@ -26326,7 +26326,7 @@
         <v>133857.3596239534</v>
       </c>
       <c r="G2" t="n">
-        <v>153524.8120988361</v>
+        <v>153524.8120988362</v>
       </c>
       <c r="H2" t="n">
         <v>153524.8120988362</v>
@@ -26335,10 +26335,10 @@
         <v>153524.8120988362</v>
       </c>
       <c r="J2" t="n">
+        <v>153524.8120988363</v>
+      </c>
+      <c r="K2" t="n">
         <v>153524.8120988362</v>
-      </c>
-      <c r="K2" t="n">
-        <v>153524.8120988364</v>
       </c>
       <c r="L2" t="n">
         <v>153524.8120988362</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149715</v>
+        <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>61543.83320915244</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613931</v>
+        <v>83547.74167613921</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915238</v>
+        <v>61543.83320915242</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415066</v>
+        <v>149683.3109415065</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561275</v>
+        <v>20455.48779561274</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>397070.1574037161</v>
       </c>
       <c r="E4" t="n">
-        <v>244219.7408414133</v>
+        <v>244219.7408414132</v>
       </c>
       <c r="F4" t="n">
         <v>244219.7408414132</v>
@@ -26445,7 +26445,7 @@
         <v>298009.3859165158</v>
       </c>
       <c r="L4" t="n">
-        <v>298009.3859165157</v>
+        <v>298009.3859165158</v>
       </c>
       <c r="M4" t="n">
         <v>296992.7137695695</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48881.83299975546</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
         <v>48881.83299975545</v>
@@ -26491,13 +26491,13 @@
         <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
+        <v>64678.11138462553</v>
+      </c>
+      <c r="K5" t="n">
         <v>64678.11138462555</v>
       </c>
-      <c r="K5" t="n">
-        <v>64678.11138462552</v>
-      </c>
       <c r="L5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654694</v>
@@ -26506,10 +26506,10 @@
         <v>57153.73105654694</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654692</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-277522.4311022552</v>
+        <v>-277526.7996747224</v>
       </c>
       <c r="C6" t="n">
-        <v>-277522.4311022552</v>
+        <v>-277526.7996747224</v>
       </c>
       <c r="D6" t="n">
-        <v>-277522.4311022552</v>
+        <v>-277526.7996747224</v>
       </c>
       <c r="E6" t="n">
-        <v>-527074.5537321869</v>
+        <v>-527320.3968881228</v>
       </c>
       <c r="F6" t="n">
-        <v>-159244.2142172152</v>
+        <v>-159490.0573731513</v>
       </c>
       <c r="G6" t="n">
-        <v>-263514.5661521722</v>
+        <v>-263514.5661521721</v>
       </c>
       <c r="H6" t="n">
         <v>-201970.7329430197</v>
@@ -26543,13 +26543,13 @@
         <v>-201970.7329430197</v>
       </c>
       <c r="J6" t="n">
-        <v>-292710.4268784444</v>
+        <v>-292710.4268784443</v>
       </c>
       <c r="K6" t="n">
-        <v>-209162.6852023049</v>
+        <v>-209162.6852023051</v>
       </c>
       <c r="L6" t="n">
-        <v>-270706.5184114574</v>
+        <v>-270706.5184114577</v>
       </c>
       <c r="M6" t="n">
         <v>-350304.9436687866</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26719,13 +26719,13 @@
         <v>152.5867559728737</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728739</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>134.0206915791156</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791155</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791155</v>
+        <v>134.0206915791156</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>632.8664803414642</v>
       </c>
       <c r="J4" t="n">
+        <v>874.0042625207865</v>
+      </c>
+      <c r="K4" t="n">
         <v>874.0042625207867</v>
       </c>
-      <c r="K4" t="n">
-        <v>874.0042625207863</v>
-      </c>
       <c r="L4" t="n">
-        <v>874.0042625207863</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
         <v>680.9911840828734</v>
@@ -26829,7 +26829,7 @@
         <v>680.9911840828732</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828732</v>
+        <v>680.9911840828728</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>76.92979151144056</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451582</v>
+        <v>25.56935974451578</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144048</v>
+        <v>76.92979151144053</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691745</v>
+        <v>50.08760471691748</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451594</v>
+        <v>25.56935974451592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793225</v>
+        <v>241.1377821793222</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035513</v>
+        <v>439.8534019035509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>76.92979151144056</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451582</v>
+        <v>25.56935974451578</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591273</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855189</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591273</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855184</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="17">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>165.9269238499924</v>
@@ -28770,13 +28770,13 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334875</v>
       </c>
       <c r="T19" t="n">
         <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
-        <v>160.9208195278152</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
         <v>165.9269238499924</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28962,13 +28962,13 @@
         <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
-        <v>146.5350699183377</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>165.9269238499924</v>
@@ -29007,7 +29007,7 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334534</v>
       </c>
       <c r="T22" t="n">
         <v>165.9269238499924</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>9.964971103334932</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
       </c>
       <c r="I25" t="n">
-        <v>135.4931377608283</v>
+        <v>116.6910872654396</v>
       </c>
       <c r="J25" t="n">
         <v>42.3701265538906</v>
@@ -29241,7 +29241,7 @@
         <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512688</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>165.9269238499924</v>
@@ -29308,7 +29308,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1485704102022964</v>
+        <v>0.1485704102013869</v>
       </c>
       <c r="O26" t="n">
         <v>102.4991512559563</v>
@@ -29545,7 +29545,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1485704102004775</v>
+        <v>0.1485704102022964</v>
       </c>
       <c r="O29" t="n">
         <v>102.4991512559563</v>
@@ -29776,7 +29776,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102025807</v>
       </c>
       <c r="M32" t="n">
         <v>102.4991512559563</v>
@@ -29791,7 +29791,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1485704102008185</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29928,10 +29928,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559569</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559571</v>
       </c>
       <c r="L34" t="n">
         <v>102.4991512559563</v>
@@ -30165,7 +30165,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>22.85329018776345</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
-        <v>137.1599022512688</v>
+        <v>117.6430658851417</v>
       </c>
       <c r="S37" t="n">
         <v>152.5867559728737</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591273</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>22.85329018776326</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591276</v>
+        <v>55.88797492591273</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728739</v>
@@ -30621,7 +30621,7 @@
         <v>152.5867559728739</v>
       </c>
       <c r="D43" t="n">
-        <v>132.0243378743863</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389061</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440141</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1599022512688</v>
+        <v>117.6430658851402</v>
       </c>
       <c r="S43" t="n">
         <v>152.5867559728739</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591276</v>
+        <v>55.88797492591273</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D46" t="n">
-        <v>132.0243378743868</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067447</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389061</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440141</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
   </sheetData>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642831</v>
+        <v>0.5387766495642835</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350215</v>
+        <v>5.517746362350221</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095661</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701274</v>
+        <v>68.53441023701279</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611567</v>
+        <v>85.02299612611574</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780449</v>
+        <v>94.60446536780458</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337902</v>
+        <v>96.13526452337911</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427417</v>
+        <v>90.77780421427425</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815593</v>
+        <v>77.47675567815598</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563502</v>
+        <v>58.18181691563507</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319243</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467651</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514264</v>
+        <v>0.04310213196514268</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097957</v>
+        <v>0.2882709215097959</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634082</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736387</v>
+        <v>9.925117253736396</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194083</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309714</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588787</v>
+        <v>62.59145600588793</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061795</v>
+        <v>73.04127691061801</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933936</v>
+        <v>74.97446216933942</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483283</v>
+        <v>68.58698543483288</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690125</v>
+        <v>55.04710254690129</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149602</v>
+        <v>36.79753026149606</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654681</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429753</v>
+        <v>5.354505932429758</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067992</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459183</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.241676656945946</v>
+        <v>0.2416766569459462</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301231</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519905</v>
+        <v>7.267876192519911</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607838</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608354</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630911</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653587</v>
+        <v>37.88391450653591</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428283</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905063</v>
+        <v>34.15989692905066</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735331</v>
+        <v>29.22969312735334</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R43" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.21176501241253</v>
+        <v>4.211765012412534</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642831</v>
+        <v>0.5387766495642835</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350215</v>
+        <v>5.517746362350221</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095661</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701274</v>
+        <v>68.53441023701279</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611567</v>
+        <v>85.02299612611574</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780449</v>
+        <v>94.60446536780458</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337902</v>
+        <v>96.13526452337911</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427417</v>
+        <v>90.77780421427425</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815593</v>
+        <v>77.47675567815598</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563502</v>
+        <v>58.18181691563507</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319243</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467651</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514264</v>
+        <v>0.04310213196514268</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097957</v>
+        <v>0.2882709215097959</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634082</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736387</v>
+        <v>9.925117253736396</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194083</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309714</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588787</v>
+        <v>62.59145600588793</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061795</v>
+        <v>73.04127691061801</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933936</v>
+        <v>74.97446216933942</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483283</v>
+        <v>68.58698543483288</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690125</v>
+        <v>55.04710254690129</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149602</v>
+        <v>36.79753026149606</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654681</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429753</v>
+        <v>5.354505932429758</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067992</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459183</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.241676656945946</v>
+        <v>0.2416766569459462</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301231</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519905</v>
+        <v>7.267876192519911</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607838</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608354</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630911</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653587</v>
+        <v>37.88391450653591</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428283</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905063</v>
+        <v>34.15989692905066</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735331</v>
+        <v>29.22969312735334</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R46" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.21176501241253</v>
+        <v>4.211765012412534</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>274.9533589666224</v>
+        <v>258.4973574656341</v>
       </c>
       <c r="L12" t="n">
         <v>432.1084713292371</v>
@@ -35501,10 +35501,10 @@
         <v>591.4044077482506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1628128732074</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466129</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
         <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842261</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0822888341505</v>
+        <v>71.08228883415042</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054802</v>
+        <v>120.5460601142443</v>
       </c>
       <c r="L14" t="n">
         <v>436.4223628785867</v>
@@ -35662,7 +35662,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
-        <v>117.3838847586908</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q14" t="n">
         <v>153.5679317505209</v>
@@ -35735,10 +35735,10 @@
         <v>562.973957223978</v>
       </c>
       <c r="N15" t="n">
-        <v>587.9996956720896</v>
+        <v>123.2511437886204</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P15" t="n">
         <v>360.1944957546763</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466124</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
@@ -35820,10 +35820,10 @@
         <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842261</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415045</v>
+        <v>71.08228883415042</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>491.8157444113277</v>
+        <v>301.2613619200918</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>208.3088605844868</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
         <v>307.9382672499269</v>
@@ -35972,7 +35972,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886204</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834701</v>
@@ -36124,13 +36124,13 @@
         <v>311.1004426054802</v>
       </c>
       <c r="L20" t="n">
-        <v>245.8679803873508</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
         <v>491.8157444113277</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>441.3017013460135</v>
       </c>
       <c r="O20" t="n">
         <v>398.8632430757227</v>
@@ -36139,7 +36139,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.5679317505209</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416527</v>
       </c>
       <c r="L21" t="n">
         <v>432.1084713292371</v>
@@ -36209,16 +36209,16 @@
         <v>562.973957223978</v>
       </c>
       <c r="N21" t="n">
-        <v>483.4456395432966</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834701</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.4537969567199</v>
+        <v>81.46734621600504</v>
       </c>
       <c r="K23" t="n">
-        <v>120.5460601142443</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L23" t="n">
         <v>436.4223628785867</v>
@@ -36376,7 +36376,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.5679317505209</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886204</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834701</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
         <v>413.5995938614366</v>
@@ -36604,19 +36604,19 @@
         <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>478.4367224969307</v>
+        <v>478.4367224969297</v>
       </c>
       <c r="O26" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064772</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004356</v>
+        <v>46.61117633004361</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
-        <v>432.1084713292371</v>
+        <v>324.1497031242824</v>
       </c>
       <c r="M27" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886199</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834701</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>196.1628128732074</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206573</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36759,7 +36759,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N28" t="n">
         <v>259.1007979700375</v>
@@ -36768,10 +36768,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155495</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614366</v>
@@ -36841,19 +36841,19 @@
         <v>594.3148956672841</v>
       </c>
       <c r="N29" t="n">
-        <v>478.4367224969288</v>
+        <v>478.4367224969307</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004362</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>84.69334255164495</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
@@ -36920,10 +36920,10 @@
         <v>562.973957223978</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P30" t="n">
         <v>360.1944957546763</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206575</v>
+        <v>60.12902470206571</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37005,10 +37005,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155496</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>413.5995938614365</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887893</v>
       </c>
       <c r="M32" t="n">
         <v>594.3148956672841</v>
@@ -37087,7 +37087,7 @@
         <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7165021607217</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
         <v>46.61117633004355</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206631</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565281</v>
+        <v>164.521208656529</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
@@ -37312,7 +37312,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
-        <v>491.815744411328</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N35" t="n">
         <v>478.2881520867284</v>
@@ -37388,19 +37388,19 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L36" t="n">
-        <v>324.1497031242816</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834701</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37628,10 +37628,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>562.973957223978</v>
+        <v>94.82069326434616</v>
       </c>
       <c r="N39" t="n">
-        <v>123.251143788619</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834701</v>
@@ -37783,16 +37783,16 @@
         <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113277</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
         <v>307.9382672499269</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>84.69334255164466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416403</v>
       </c>
       <c r="L42" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M42" t="n">
         <v>562.973957223978</v>
@@ -37871,13 +37871,13 @@
         <v>591.4044077482506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P42" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057184</v>
+        <v>62.02205740057186</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
@@ -37953,7 +37953,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567432</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113277</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499245</v>
       </c>
       <c r="Q44" t="n">
         <v>153.5679317505209</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780562</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N45" t="n">
-        <v>123.2511437886194</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834701</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057184</v>
+        <v>62.02205740057186</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
@@ -38190,7 +38190,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567432</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
